--- a/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/satisfaction/combined_results.xlsx
+++ b/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/satisfaction/combined_results.xlsx
@@ -523,52 +523,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7193</v>
+        <v>18436</v>
       </c>
       <c r="C2" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
       <c r="D2" t="n">
-        <v>7193</v>
+        <v>24015</v>
       </c>
       <c r="E2" t="n">
-        <v>7193</v>
+        <v>25024</v>
       </c>
       <c r="F2" t="n">
-        <v>7193</v>
+        <v>18436</v>
       </c>
       <c r="G2" t="n">
-        <v>7193</v>
+        <v>24015</v>
       </c>
       <c r="H2" t="n">
-        <v>7193</v>
+        <v>25024</v>
       </c>
       <c r="I2" t="n">
-        <v>7193</v>
+        <v>18436</v>
       </c>
       <c r="J2" t="n">
-        <v>7193</v>
+        <v>15731</v>
       </c>
       <c r="K2" t="n">
-        <v>7193</v>
+        <v>16528</v>
       </c>
       <c r="L2" t="n">
-        <v>7193</v>
+        <v>24015</v>
       </c>
       <c r="M2" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
       <c r="N2" t="n">
-        <v>8774</v>
+        <v>21070</v>
       </c>
       <c r="O2" t="n">
-        <v>8774</v>
+        <v>20391</v>
       </c>
       <c r="P2" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
       <c r="Q2" t="n">
-        <v>8774</v>
+        <v>24015</v>
       </c>
     </row>
   </sheetData>
@@ -677,52 +677,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="L2" t="n">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -831,52 +831,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>191</v>
+        <v>502</v>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
       <c r="D2" t="n">
-        <v>191</v>
+        <v>634</v>
       </c>
       <c r="E2" t="n">
-        <v>191</v>
+        <v>621</v>
       </c>
       <c r="F2" t="n">
-        <v>191</v>
+        <v>502</v>
       </c>
       <c r="G2" t="n">
-        <v>191</v>
+        <v>634</v>
       </c>
       <c r="H2" t="n">
-        <v>191</v>
+        <v>621</v>
       </c>
       <c r="I2" t="n">
-        <v>191</v>
+        <v>502</v>
       </c>
       <c r="J2" t="n">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="K2" t="n">
-        <v>191</v>
+        <v>486</v>
       </c>
       <c r="L2" t="n">
-        <v>191</v>
+        <v>634</v>
       </c>
       <c r="M2" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
       <c r="N2" t="n">
-        <v>292</v>
+        <v>527</v>
       </c>
       <c r="O2" t="n">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="P2" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
       <c r="Q2" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
